--- a/dz_Buyanov_2026.01.13_sql_refer/таблица sql.xlsx
+++ b/dz_Buyanov_2026.01.13_sql_refer/таблица sql.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{209A5CA5-750F-4913-A704-E4A44E2B3DCE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
   <si>
     <t>Россия</t>
   </si>
@@ -183,12 +181,30 @@
   </si>
   <si>
     <t>510 чел</t>
+  </si>
+  <si>
+    <t>id_cтраны</t>
+  </si>
+  <si>
+    <t>id_инструмента</t>
+  </si>
+  <si>
+    <t>id_автор произведения</t>
+  </si>
+  <si>
+    <t>id_учасник</t>
+  </si>
+  <si>
+    <t>Участик</t>
+  </si>
+  <si>
+    <t>Результаты конкурса</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,7 +214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,8 +239,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -232,11 +254,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -261,6 +384,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -540,24 +702,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I14" sqref="I14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -576,8 +743,15 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -596,8 +770,23 @@
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -616,8 +805,23 @@
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="13">
+        <v>1</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="14">
+        <v>1</v>
+      </c>
+      <c r="K3" s="14">
+        <v>1</v>
+      </c>
+      <c r="L3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -636,8 +840,23 @@
       <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="13">
+        <v>2</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="14">
+        <v>1</v>
+      </c>
+      <c r="K4" s="14">
+        <v>2</v>
+      </c>
+      <c r="L4" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2">
@@ -648,29 +867,75 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="13">
+        <v>3</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="14">
+        <v>2</v>
+      </c>
+      <c r="K5" s="14">
+        <v>3</v>
+      </c>
+      <c r="L5" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H6" s="13">
+        <v>4</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="14">
+        <v>3</v>
+      </c>
+      <c r="K6" s="14">
+        <v>3</v>
+      </c>
+      <c r="L6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="12">
+        <v>5</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="15">
+        <v>3</v>
+      </c>
+      <c r="K7" s="15">
+        <v>4</v>
+      </c>
+      <c r="L7" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -689,8 +954,13 @@
       <c r="F8" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -709,8 +979,17 @@
       <c r="F9" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>3</v>
       </c>
@@ -729,8 +1008,17 @@
       <c r="F10" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4</v>
       </c>
@@ -749,8 +1037,17 @@
       <c r="F11" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="4">
+        <v>2</v>
+      </c>
+      <c r="I11" s="14">
+        <v>2</v>
+      </c>
+      <c r="J11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>5</v>
       </c>
@@ -769,8 +1066,39 @@
       <c r="F12" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="4">
+        <v>3</v>
+      </c>
+      <c r="I12" s="14">
+        <v>3</v>
+      </c>
+      <c r="J12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H13" s="4">
+        <v>4</v>
+      </c>
+      <c r="I13" s="14">
+        <v>4</v>
+      </c>
+      <c r="J13" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H14" s="4">
+        <v>5</v>
+      </c>
+      <c r="I14" s="14">
+        <v>5</v>
+      </c>
+      <c r="J14" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1188,6 +1516,10 @@
       <c r="H42" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H8:J8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>